--- a/Output/SampleDescription.xlsx
+++ b/Output/SampleDescription.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">Couple level variables (38 couples)</t>
   </si>
   <si>
-    <t xml:space="preserve">Relationship_duration</t>
+    <t xml:space="preserve">Relationship duration</t>
   </si>
   <si>
     <t xml:space="preserve">38</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">0.58-36.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Cohabiting_duration</t>
+    <t xml:space="preserve">Cohabiting duration</t>
   </si>
   <si>
     <t xml:space="preserve">7.53</t>
@@ -71,10 +71,10 @@
     <t xml:space="preserve">0.25-33.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Couple_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Same-Sex Couple (Male)</t>
+    <t xml:space="preserve">Couple type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same-sex couple (male)</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -83,10 +83,10 @@
     <t xml:space="preserve">3%</t>
   </si>
   <si>
-    <t xml:space="preserve">Same-Sex Couple (Female)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixed-sex Couple</t>
+    <t xml:space="preserve">Same-sex couple (female)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed-sex couple</t>
   </si>
   <si>
     <t xml:space="preserve">36</t>
@@ -95,16 +95,16 @@
     <t xml:space="preserve">95%</t>
   </si>
   <si>
-    <t xml:space="preserve">Household_Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don't know</t>
+    <t xml:space="preserve">Household income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I do not know</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">up to CHF 2'000.-</t>
+    <t xml:space="preserve">Up to CHF 2'000</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">5%</t>
   </si>
   <si>
-    <t xml:space="preserve">CHF 2'001.- to CHF 4'000.-</t>
+    <t xml:space="preserve">CHF 2'001 to CHF 4'000</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
@@ -122,10 +122,10 @@
     <t xml:space="preserve">8%</t>
   </si>
   <si>
-    <t xml:space="preserve">CHF 6'001.- to CHF 8'000.-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHF 4'001.- to CHF 6'000.-</t>
+    <t xml:space="preserve">CHF 6'001 to CHF 8'000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHF 4'001 to CHF 6'000</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">Undisclosed</t>
   </si>
   <si>
-    <t xml:space="preserve">CHF 8'001.- to CHF 10'000.-</t>
+    <t xml:space="preserve">CHF 8'001 to CHF 10'000</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">21%</t>
   </si>
   <si>
-    <t xml:space="preserve">above CHF 10'000.-</t>
+    <t xml:space="preserve">Above CHF 10'000</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">32%</t>
   </si>
   <si>
-    <t xml:space="preserve">Marital_status</t>
+    <t xml:space="preserve">Marital status</t>
   </si>
   <si>
     <t xml:space="preserve">Married</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">34%</t>
   </si>
   <si>
-    <t xml:space="preserve">Not Married</t>
+    <t xml:space="preserve">Not married</t>
   </si>
   <si>
     <t xml:space="preserve">25</t>
@@ -176,10 +176,10 @@
     <t xml:space="preserve">66%</t>
   </si>
   <si>
-    <t xml:space="preserve">Have_children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Children</t>
+    <t xml:space="preserve">Have children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No children</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
@@ -188,9 +188,6 @@
     <t xml:space="preserve">29%</t>
   </si>
   <si>
-    <t xml:space="preserve">Have Children</t>
-  </si>
-  <si>
     <t xml:space="preserve">27</t>
   </si>
   <si>
@@ -254,19 +251,19 @@
     <t xml:space="preserve">84%</t>
   </si>
   <si>
-    <t xml:space="preserve">Highest_Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(still) no school diploma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compulsory education (9 years)</t>
+    <t xml:space="preserve">Highest education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Still) no school diploma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compulsory education (9 years)</t>
   </si>
   <si>
     <t xml:space="preserve">Doctorate degree</t>
   </si>
   <si>
-    <t xml:space="preserve">vocational training (apprenticeship)</t>
+    <t xml:space="preserve">Vocational training (apprenticeship)</t>
   </si>
   <si>
     <t xml:space="preserve">11%</t>
@@ -1020,13 +1017,13 @@
         <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1035,36 +1032,36 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
@@ -1079,16 +1076,16 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1097,16 +1094,16 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1115,38 +1112,38 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1155,16 +1152,16 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1173,16 +1170,16 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1191,10 +1188,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>29</v>
@@ -1209,10 +1206,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>29</v>
@@ -1227,10 +1224,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>29</v>
@@ -1245,16 +1242,16 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1263,16 +1260,16 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1281,16 +1278,16 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1299,13 +1296,13 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>46</v>
@@ -1317,24 +1314,24 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35"/>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
         <v>11</v>
       </c>
       <c r="F35" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" t="s">
         <v>95</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>96</v>
-      </c>
-      <c r="H35" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Output/SampleDescription.xlsx
+++ b/Output/SampleDescription.xlsx
@@ -20,10 +20,10 @@
     <t xml:space="preserve">Level</t>
   </si>
   <si>
-    <t xml:space="preserve">n_Obs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage_Obs</t>
+    <t xml:space="preserve">n Observations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Observations</t>
   </si>
   <si>
     <t xml:space="preserve">Missing</t>
@@ -338,7 +338,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -346,19 +346,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
   </cellXfs>
@@ -665,59 +686,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1"/>
@@ -739,7 +760,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="1"/>
@@ -761,7 +782,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -779,7 +800,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -797,7 +818,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -815,7 +836,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -833,7 +854,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -851,7 +872,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -869,7 +890,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -887,7 +908,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -905,7 +926,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -923,7 +944,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -941,7 +962,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -959,7 +980,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -977,7 +998,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -995,7 +1016,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1013,7 +1034,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1031,7 +1052,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1057,7 +1078,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1075,7 +1096,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1093,7 +1114,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1111,7 +1132,7 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B24" s="1"/>
@@ -1133,7 +1154,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1151,7 +1172,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1169,7 +1190,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1187,7 +1208,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1205,7 +1226,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1223,7 +1244,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1241,7 +1262,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1259,7 +1280,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1277,7 +1298,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1295,7 +1316,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1313,24 +1334,24 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B35"/>
-      <c r="C35" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D35"/>
-      <c r="E35" t="s">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="4" t="s">
         <v>96</v>
       </c>
     </row>
